--- a/biology/Zoologie/Anolis_nietoi/Anolis_nietoi.xlsx
+++ b/biology/Zoologie/Anolis_nietoi/Anolis_nietoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis nietoi est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis nietoi est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guerrero au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guerrero au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 50,0 mm et les femelles jusqu'à 38,5 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 50,0 mm et les femelles jusqu'à 38,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adrian Nieto Montes de Oca[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adrian Nieto Montes de Oca.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Köhler, Trejo-Pérez, Petersen &amp; Mendez de la Cruz, 2014 : A revision of the Mexican Anolis (Reptilia, Squamata, Dactyloidae) from the Pacific versant west of the Isthmus de Tehuantepec in the states of Oaxaca, Guerrero, and Puebla, with the description of six new species. Zootaxa, no 3862 (1), p. 1–210.</t>
         </is>
